--- a/biology/Zoologie/Anabate_à_sourcils_fauves/Anabate_à_sourcils_fauves.xlsx
+++ b/biology/Zoologie/Anabate_à_sourcils_fauves/Anabate_à_sourcils_fauves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_sourcils_fauves</t>
+          <t>Anabate_à_sourcils_fauves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syndactyla rufosuperciliata
 L’Anabate à sourcils fauves (Syndactyle rufosuperciliata) est une espèce d'oiseaux de la famille des Furnariidés vivant en Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_sourcils_fauves</t>
+          <t>Anabate_à_sourcils_fauves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est répartie de manière disjointe, dans les Andes, du sud de l’Équateur, du Pérou, de la Bolivie, au nord-ouest de l’Argentine, et du sud-est du Brésil, au sud, à l’est du Paraguay, à l’Uruguay, à l’est de l’Argentine, jusqu’au centre-est de ce pays.
 Cette espèce est considérée comme assez commune et largement répandue dans ses habitats naturels, le sous-bois des forêts humides des montagnes andines et de la Mata Atlántica, à des altitudes comprises entre 900 et 2 500 m dans les Andes, et jusqu’à 1 600 m dans les autres zones.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_sourcils_fauves</t>
+          <t>Anabate_à_sourcils_fauves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon les classifications du Congrès ornithologique international (IOC) et des oiseaux du monde, quatre sous-espèces sont reconnues, avec leur répartition géographique correspondante :
 Syndactyla rufosuperciliata cabanisi (Taczanowski, 1875) - Andes du sud de l’Équateur (Cordillère du Condor, à Zamora Chinchipe), Pérou (Piura, Cajamarca et au sud de l’Amazonie) et ouest de la Bolivie (au sud jusqu’à Cochabamba) ;
